--- a/XtraReport1.xlsx
+++ b/XtraReport1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projekty\excel-import-new\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{50B943C1-54CA-4904-894E-03C7614E3DCA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F8C7A267-3BED-4A34-8CC2-BED99FE345E1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1CC78F5E-94F6-4B25-B553-E3EAD7F9B6CC}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B6FE704F-A4B2-4675-8C45-E777DE7FF55D}"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -685,7 +685,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
-    <cellStyle name="Normalny 2" xfId="1" xr:uid="{1EA8342B-0029-4B5C-9905-6E5888B5E5AF}"/>
+    <cellStyle name="Normalny 2" xfId="1" xr:uid="{CE844E33-6C46-4DB2-8B9C-6362CBA948DD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -996,11 +996,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46F89107-9F11-4EC0-A1CE-9D392A29739C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49C81B33-A35A-4D49-AC96-BC7E25FC961C}">
   <dimension ref="A1:AQ156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C103" workbookViewId="0">
-      <selection activeCell="D52" sqref="D52"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="Q53" sqref="Q53:AL54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
